--- a/data/pca/factorExposure/factorExposure_2016-11-17.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-11-17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01795116963274962</v>
+        <v>0.01605250730643026</v>
       </c>
       <c r="C2">
-        <v>0.04573316194182991</v>
+        <v>-0.04326552904215166</v>
       </c>
       <c r="D2">
-        <v>0.02110285542746293</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.05438677638615198</v>
+      </c>
+      <c r="E2">
+        <v>0.018638434182311</v>
+      </c>
+      <c r="F2">
+        <v>0.09089860970848865</v>
+      </c>
+      <c r="G2">
+        <v>0.03443008051728272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.05648675966975091</v>
+        <v>0.03521485831474883</v>
       </c>
       <c r="C3">
-        <v>0.1019547028190048</v>
+        <v>-0.08434227850364392</v>
       </c>
       <c r="D3">
-        <v>0.02581201928873073</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.09739556157251908</v>
+      </c>
+      <c r="E3">
+        <v>0.0233253027728818</v>
+      </c>
+      <c r="F3">
+        <v>0.08734230464145966</v>
+      </c>
+      <c r="G3">
+        <v>-0.06790036365533179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.06192196915325195</v>
+        <v>0.05806826527647631</v>
       </c>
       <c r="C4">
-        <v>0.06654044147887485</v>
+        <v>-0.063701008476495</v>
       </c>
       <c r="D4">
-        <v>0.0003264062071000439</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.05475458700007235</v>
+      </c>
+      <c r="E4">
+        <v>0.01285994795731676</v>
+      </c>
+      <c r="F4">
+        <v>0.09511820130353704</v>
+      </c>
+      <c r="G4">
+        <v>-0.02784537549778298</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.02578874154850494</v>
+        <v>0.03524107618496421</v>
       </c>
       <c r="C6">
-        <v>0.05101789550518904</v>
+        <v>-0.03870220112040177</v>
       </c>
       <c r="D6">
-        <v>0.008744995780303935</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.06450447944607736</v>
+      </c>
+      <c r="E6">
+        <v>0.01522466760330701</v>
+      </c>
+      <c r="F6">
+        <v>0.08779001325212514</v>
+      </c>
+      <c r="G6">
+        <v>-0.006441340306282257</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.02161678524859728</v>
+        <v>0.02220408430653331</v>
       </c>
       <c r="C7">
-        <v>0.04572063727546795</v>
+        <v>-0.03705548441063042</v>
       </c>
       <c r="D7">
-        <v>-0.01456886548229011</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.029094844585149</v>
+      </c>
+      <c r="E7">
+        <v>0.0001779543950202575</v>
+      </c>
+      <c r="F7">
+        <v>0.1174383860077488</v>
+      </c>
+      <c r="G7">
+        <v>0.01005084741041252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.0005308239148058821</v>
+        <v>0.006580013610900176</v>
       </c>
       <c r="C8">
-        <v>0.01021846582615478</v>
+        <v>-0.02009163818836845</v>
       </c>
       <c r="D8">
-        <v>0.01488980344943413</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03349711497439664</v>
+      </c>
+      <c r="E8">
+        <v>0.01175120952906536</v>
+      </c>
+      <c r="F8">
+        <v>0.06914910559351849</v>
+      </c>
+      <c r="G8">
+        <v>-0.005798973841339383</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.02866539567681487</v>
+        <v>0.03681742163169254</v>
       </c>
       <c r="C9">
-        <v>0.04580105001540023</v>
+        <v>-0.05109504991170629</v>
       </c>
       <c r="D9">
-        <v>-0.005056425829032624</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.03690795027264246</v>
+      </c>
+      <c r="E9">
+        <v>0.008902448027769827</v>
+      </c>
+      <c r="F9">
+        <v>0.09828487412323757</v>
+      </c>
+      <c r="G9">
+        <v>-0.01052163027968986</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.08333277241168577</v>
+        <v>0.09482938782024274</v>
       </c>
       <c r="C10">
-        <v>-0.1989932232874066</v>
+        <v>0.1929197543905774</v>
       </c>
       <c r="D10">
-        <v>0.02301481202968381</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01141608699407388</v>
+      </c>
+      <c r="E10">
+        <v>0.03381378211411568</v>
+      </c>
+      <c r="F10">
+        <v>0.051127981977193</v>
+      </c>
+      <c r="G10">
+        <v>-0.001691120194246636</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.04167345687530078</v>
+        <v>0.03769944403122208</v>
       </c>
       <c r="C11">
-        <v>0.05547910212895923</v>
+        <v>-0.05134958952541076</v>
       </c>
       <c r="D11">
-        <v>-0.01179754070830208</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.02446299386256255</v>
+      </c>
+      <c r="E11">
+        <v>-0.01361397073226468</v>
+      </c>
+      <c r="F11">
+        <v>0.06778334352545203</v>
+      </c>
+      <c r="G11">
+        <v>-0.00498377228952177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.03592260312483395</v>
+        <v>0.03831190155499231</v>
       </c>
       <c r="C12">
-        <v>0.0459326426147998</v>
+        <v>-0.04655511008629377</v>
       </c>
       <c r="D12">
-        <v>-0.01042978309375366</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.01826738100592619</v>
+      </c>
+      <c r="E12">
+        <v>-0.003805072217982792</v>
+      </c>
+      <c r="F12">
+        <v>0.07005373499638623</v>
+      </c>
+      <c r="G12">
+        <v>-0.001405412438083062</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.01093983679798328</v>
+        <v>0.01450575906991984</v>
       </c>
       <c r="C13">
-        <v>0.04193684515311037</v>
+        <v>-0.04049971226992909</v>
       </c>
       <c r="D13">
-        <v>0.0165418804268312</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.06071332183975739</v>
+      </c>
+      <c r="E13">
+        <v>0.02827820445391821</v>
+      </c>
+      <c r="F13">
+        <v>0.1333775533841201</v>
+      </c>
+      <c r="G13">
+        <v>-0.007297311636191278</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.005692728290500123</v>
+        <v>0.008116349581211001</v>
       </c>
       <c r="C14">
-        <v>0.03050493425317292</v>
+        <v>-0.02569595152035417</v>
       </c>
       <c r="D14">
-        <v>-0.01365651073032552</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.02263920510820533</v>
+      </c>
+      <c r="E14">
+        <v>0.006921984062467232</v>
+      </c>
+      <c r="F14">
+        <v>0.1048029041347976</v>
+      </c>
+      <c r="G14">
+        <v>0.01642821335519088</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.001009810398962319</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>-0.0007863946556595565</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.001709810684939869</v>
+      </c>
+      <c r="E15">
+        <v>-0.001088683326678347</v>
+      </c>
+      <c r="F15">
+        <v>0.001020659459637495</v>
+      </c>
+      <c r="G15">
+        <v>0.0006881336561798168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.03554656484803084</v>
+        <v>0.035152056373196</v>
       </c>
       <c r="C16">
-        <v>0.04072060479363728</v>
+        <v>-0.04433519989309634</v>
       </c>
       <c r="D16">
-        <v>-0.002388565076343068</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02282904501749505</v>
+      </c>
+      <c r="E16">
+        <v>0.002161884920032981</v>
+      </c>
+      <c r="F16">
+        <v>0.07327410542173876</v>
+      </c>
+      <c r="G16">
+        <v>0.0087329056890172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.03218028800344191</v>
+        <v>0.0203617854040924</v>
       </c>
       <c r="C19">
-        <v>0.05993735634323697</v>
+        <v>-0.04862837607350743</v>
       </c>
       <c r="D19">
-        <v>0.03433222274040021</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1004758344905615</v>
+      </c>
+      <c r="E19">
+        <v>0.03246289095954326</v>
+      </c>
+      <c r="F19">
+        <v>0.1371890910866415</v>
+      </c>
+      <c r="G19">
+        <v>0.02287474837845203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01387029815881747</v>
+        <v>0.01622548620921209</v>
       </c>
       <c r="C20">
-        <v>0.04489061626983971</v>
+        <v>-0.03858052271630179</v>
       </c>
       <c r="D20">
-        <v>0.02144046361928824</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.04496039843360281</v>
+      </c>
+      <c r="E20">
+        <v>0.03448843815181808</v>
+      </c>
+      <c r="F20">
+        <v>0.1012898887716382</v>
+      </c>
+      <c r="G20">
+        <v>0.006861382054336347</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.007155092911879246</v>
+        <v>0.009777529952525338</v>
       </c>
       <c r="C21">
-        <v>0.04031806518407548</v>
+        <v>-0.04010090831093749</v>
       </c>
       <c r="D21">
-        <v>0.02553339927726912</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.06160296971626787</v>
+      </c>
+      <c r="E21">
+        <v>0.02977209931902592</v>
+      </c>
+      <c r="F21">
+        <v>0.1491109385883522</v>
+      </c>
+      <c r="G21">
+        <v>0.005506501351247523</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.004585868976818556</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.01478363330528409</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.0249763349600461</v>
+      </c>
+      <c r="E22">
+        <v>0.001595748438809994</v>
+      </c>
+      <c r="F22">
+        <v>0.02005443203803491</v>
+      </c>
+      <c r="G22">
+        <v>-0.03370878347231906</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.004640109478327705</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.01473488550718727</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.02472841397704485</v>
+      </c>
+      <c r="E23">
+        <v>0.001911956030596009</v>
+      </c>
+      <c r="F23">
+        <v>0.01977897056219052</v>
+      </c>
+      <c r="G23">
+        <v>-0.03373200666926317</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.02940681687509182</v>
+        <v>0.03353040805750966</v>
       </c>
       <c r="C24">
-        <v>0.04752598264048561</v>
+        <v>-0.05172169204378204</v>
       </c>
       <c r="D24">
-        <v>-0.01214648195274214</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.01942550611970655</v>
+      </c>
+      <c r="E24">
+        <v>-0.00416576203982691</v>
+      </c>
+      <c r="F24">
+        <v>0.07753106930999866</v>
+      </c>
+      <c r="G24">
+        <v>0.003490796512581622</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.04699610952007079</v>
+        <v>0.04405149939202674</v>
       </c>
       <c r="C25">
-        <v>0.05587905817928443</v>
+        <v>-0.05687530091424548</v>
       </c>
       <c r="D25">
-        <v>-0.02311412550412292</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.01551077289386791</v>
+      </c>
+      <c r="E25">
+        <v>-0.00627597799788174</v>
+      </c>
+      <c r="F25">
+        <v>0.08392676926672049</v>
+      </c>
+      <c r="G25">
+        <v>-0.01384180369695843</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.009582774514965227</v>
+        <v>0.01549486737598944</v>
       </c>
       <c r="C26">
-        <v>0.01290104205196716</v>
+        <v>-0.01288803826638203</v>
       </c>
       <c r="D26">
-        <v>-0.001162723976237353</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.01661489880739892</v>
+      </c>
+      <c r="E26">
+        <v>0.009494362511568669</v>
+      </c>
+      <c r="F26">
+        <v>0.08170509024620834</v>
+      </c>
+      <c r="G26">
+        <v>0.02066217137243399</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.09708940399891887</v>
+        <v>0.1281895088277434</v>
       </c>
       <c r="C28">
-        <v>-0.2262856923518673</v>
+        <v>0.2444992069153784</v>
       </c>
       <c r="D28">
-        <v>0.0127674983580467</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.007987620984244279</v>
+      </c>
+      <c r="E28">
+        <v>0.03656681199080082</v>
+      </c>
+      <c r="F28">
+        <v>0.061879558570984</v>
+      </c>
+      <c r="G28">
+        <v>-0.006537362954568055</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.01165888230204875</v>
+        <v>0.00918641603139196</v>
       </c>
       <c r="C29">
-        <v>0.02186032476350095</v>
+        <v>-0.0217425243538418</v>
       </c>
       <c r="D29">
-        <v>-0.01136748506732104</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01326101447094909</v>
+      </c>
+      <c r="E29">
+        <v>0.0114391334866522</v>
+      </c>
+      <c r="F29">
+        <v>0.09891121359780376</v>
+      </c>
+      <c r="G29">
+        <v>0.002944686310803032</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.04099821575517675</v>
+        <v>0.03998897843745674</v>
       </c>
       <c r="C30">
-        <v>0.07330730067443098</v>
+        <v>-0.0631666242761786</v>
       </c>
       <c r="D30">
-        <v>-0.001943765808714227</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.09135564911091132</v>
+      </c>
+      <c r="E30">
+        <v>-0.01448320246845357</v>
+      </c>
+      <c r="F30">
+        <v>0.1104995972981193</v>
+      </c>
+      <c r="G30">
+        <v>0.02805885956562364</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.04306563098890557</v>
+        <v>0.05776458156919752</v>
       </c>
       <c r="C31">
-        <v>0.03098505476386023</v>
+        <v>-0.04410259983723224</v>
       </c>
       <c r="D31">
-        <v>-0.01177191347349297</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.002665363749283249</v>
+      </c>
+      <c r="E31">
+        <v>0.03417237728191099</v>
+      </c>
+      <c r="F31">
+        <v>0.0936666885931805</v>
+      </c>
+      <c r="G31">
+        <v>-0.0311809617970788</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.007900947741804906</v>
+        <v>0.004939573494222919</v>
       </c>
       <c r="C32">
-        <v>0.03460051206723599</v>
+        <v>-0.02759936411708004</v>
       </c>
       <c r="D32">
-        <v>0.01109520936613521</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.04354608059213838</v>
+      </c>
+      <c r="E32">
+        <v>-0.003204182213962277</v>
+      </c>
+      <c r="F32">
+        <v>0.0782801693059212</v>
+      </c>
+      <c r="G32">
+        <v>0.01088183173302153</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.03177326038709986</v>
+        <v>0.02798463052500869</v>
       </c>
       <c r="C33">
-        <v>0.05747635143312082</v>
+        <v>-0.04971576645363334</v>
       </c>
       <c r="D33">
-        <v>0.003751215872428422</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.07033802728591573</v>
+      </c>
+      <c r="E33">
+        <v>0.007383534062604022</v>
+      </c>
+      <c r="F33">
+        <v>0.1513874317220034</v>
+      </c>
+      <c r="G33">
+        <v>-0.00885359522668778</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.05287710020488613</v>
+        <v>0.04378053564132735</v>
       </c>
       <c r="C34">
-        <v>0.05429139645657114</v>
+        <v>-0.06190814034456425</v>
       </c>
       <c r="D34">
-        <v>-0.01820894653641819</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.02281398303680789</v>
+      </c>
+      <c r="E34">
+        <v>-0.02033153680395395</v>
+      </c>
+      <c r="F34">
+        <v>0.07669415109050311</v>
+      </c>
+      <c r="G34">
+        <v>-0.001129064289301772</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01072701601244719</v>
+        <v>0.01654439406987644</v>
       </c>
       <c r="C36">
-        <v>0.008152440725060439</v>
+        <v>-0.008449107672798453</v>
       </c>
       <c r="D36">
-        <v>-0.006370906379926945</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01994836037804213</v>
+      </c>
+      <c r="E36">
+        <v>0.01365035479139152</v>
+      </c>
+      <c r="F36">
+        <v>0.09568784963196118</v>
+      </c>
+      <c r="G36">
+        <v>-0.001757305378300144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.0374393539149404</v>
+        <v>0.02935672905146433</v>
       </c>
       <c r="C38">
-        <v>0.0215218147196468</v>
+        <v>-0.02193772225198854</v>
       </c>
       <c r="D38">
-        <v>-0.009534230642895783</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02127040262315518</v>
+      </c>
+      <c r="E38">
+        <v>0.01487727148147616</v>
+      </c>
+      <c r="F38">
+        <v>0.08555786961192177</v>
+      </c>
+      <c r="G38">
+        <v>-0.004214018787479906</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.03808983504200255</v>
+        <v>0.03844559147051147</v>
       </c>
       <c r="C39">
-        <v>0.08370321208998224</v>
+        <v>-0.07209576907387022</v>
       </c>
       <c r="D39">
-        <v>0.004829285681209291</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.04714550941308427</v>
+      </c>
+      <c r="E39">
+        <v>-0.01385615275851169</v>
+      </c>
+      <c r="F39">
+        <v>0.08621420450563852</v>
+      </c>
+      <c r="G39">
+        <v>0.03424478493958261</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01792740799959462</v>
+        <v>0.01926450450785551</v>
       </c>
       <c r="C40">
-        <v>0.02673382110955375</v>
+        <v>-0.03737936200316003</v>
       </c>
       <c r="D40">
-        <v>0.018993471861945</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03391259854125792</v>
+      </c>
+      <c r="E40">
+        <v>0.03412313879226259</v>
+      </c>
+      <c r="F40">
+        <v>0.1182105198642263</v>
+      </c>
+      <c r="G40">
+        <v>-0.0413293350831575</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.01105382145283958</v>
+        <v>0.01905040442685582</v>
       </c>
       <c r="C41">
-        <v>0.0001346684364480396</v>
+        <v>-0.001186016007924081</v>
       </c>
       <c r="D41">
-        <v>-0.007862899838152805</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01585140786714423</v>
+      </c>
+      <c r="E41">
+        <v>0.01779587386159912</v>
+      </c>
+      <c r="F41">
+        <v>0.08583190062575904</v>
+      </c>
+      <c r="G41">
+        <v>0.004104859677472071</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.01772754531550922</v>
+        <v>0.009700878324464127</v>
       </c>
       <c r="C42">
-        <v>0.03532553307742334</v>
+        <v>-0.01898955297552642</v>
       </c>
       <c r="D42">
-        <v>0.02627700532394097</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.01248273389454733</v>
+      </c>
+      <c r="E42">
+        <v>0.01800388670713417</v>
+      </c>
+      <c r="F42">
+        <v>-0.01631384425460177</v>
+      </c>
+      <c r="G42">
+        <v>0.004250810611461034</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.03396629785060948</v>
+        <v>0.03349609830632436</v>
       </c>
       <c r="C43">
-        <v>0.01214004746430254</v>
+        <v>-0.01425959777073875</v>
       </c>
       <c r="D43">
-        <v>-0.006833753557230236</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.03450656328005045</v>
+      </c>
+      <c r="E43">
+        <v>0.01452280538838437</v>
+      </c>
+      <c r="F43">
+        <v>0.1085810986016889</v>
+      </c>
+      <c r="G43">
+        <v>-0.01763018775647704</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.02113433924589161</v>
+        <v>0.01743714091519315</v>
       </c>
       <c r="C44">
-        <v>0.05525785256222266</v>
+        <v>-0.05358530551125532</v>
       </c>
       <c r="D44">
-        <v>0.003872608090311233</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.03651437000157756</v>
+      </c>
+      <c r="E44">
+        <v>0.02768982946217331</v>
+      </c>
+      <c r="F44">
+        <v>0.1113136879111956</v>
+      </c>
+      <c r="G44">
+        <v>0.01403097062413414</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-4.629296318180455e-06</v>
+        <v>0.01093247091599261</v>
       </c>
       <c r="C46">
-        <v>0.01489144268522469</v>
+        <v>-0.01771774375484262</v>
       </c>
       <c r="D46">
-        <v>-0.01748180437970948</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.005502301938999602</v>
+      </c>
+      <c r="E46">
+        <v>0.01829296151075109</v>
+      </c>
+      <c r="F46">
+        <v>0.1100499614784379</v>
+      </c>
+      <c r="G46">
+        <v>0.00925408395908053</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.07852140169593906</v>
+        <v>0.08762604162184964</v>
       </c>
       <c r="C47">
-        <v>0.06838296507759026</v>
+        <v>-0.07453932986761762</v>
       </c>
       <c r="D47">
-        <v>-0.007103416168896758</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.008227599497159694</v>
+      </c>
+      <c r="E47">
+        <v>0.04101759816791094</v>
+      </c>
+      <c r="F47">
+        <v>0.09319011985771596</v>
+      </c>
+      <c r="G47">
+        <v>-0.03423376320533563</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.01788102600671647</v>
+        <v>0.01805245982395868</v>
       </c>
       <c r="C48">
-        <v>0.01074727710432885</v>
+        <v>-0.01448119234729469</v>
       </c>
       <c r="D48">
-        <v>-0.009563110464516848</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01348051733639539</v>
+      </c>
+      <c r="E48">
+        <v>0.02344891607371739</v>
+      </c>
+      <c r="F48">
+        <v>0.1068313670749593</v>
+      </c>
+      <c r="G48">
+        <v>0.004278642810684035</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.08687326376414627</v>
+        <v>0.07523000583015697</v>
       </c>
       <c r="C50">
-        <v>0.06719069898420825</v>
+        <v>-0.06678835262699009</v>
       </c>
       <c r="D50">
-        <v>-0.01973923675061635</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.001101408345336777</v>
+      </c>
+      <c r="E50">
+        <v>0.03485309452276884</v>
+      </c>
+      <c r="F50">
+        <v>0.09270871501347464</v>
+      </c>
+      <c r="G50">
+        <v>-0.06738830536193167</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.01680807158795571</v>
+        <v>0.01204557035788367</v>
       </c>
       <c r="C51">
-        <v>0.03940700463195802</v>
+        <v>-0.03295610266241565</v>
       </c>
       <c r="D51">
-        <v>-0.008819381337215436</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.04145836392746022</v>
+      </c>
+      <c r="E51">
+        <v>-0.004546225762435202</v>
+      </c>
+      <c r="F51">
+        <v>0.09888844666809468</v>
+      </c>
+      <c r="G51">
+        <v>0.01953964330588081</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.0980829801212157</v>
+        <v>0.09180792282766348</v>
       </c>
       <c r="C53">
-        <v>0.06914961674799379</v>
+        <v>-0.08347472187317208</v>
       </c>
       <c r="D53">
-        <v>-0.0288908289793038</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.03039579001511101</v>
+      </c>
+      <c r="E53">
+        <v>0.04879871800576825</v>
+      </c>
+      <c r="F53">
+        <v>0.1019457969356129</v>
+      </c>
+      <c r="G53">
+        <v>-0.03917388900073932</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.03074121926228714</v>
+        <v>0.03271817985326533</v>
       </c>
       <c r="C54">
-        <v>0.006311287628094681</v>
+        <v>-0.01959645329875196</v>
       </c>
       <c r="D54">
-        <v>-0.001889083828205133</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.02489632443805029</v>
+      </c>
+      <c r="E54">
+        <v>0.01288508513839981</v>
+      </c>
+      <c r="F54">
+        <v>0.1080339677468911</v>
+      </c>
+      <c r="G54">
+        <v>0.003170942632122762</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.07422804388218394</v>
+        <v>0.08277853483827204</v>
       </c>
       <c r="C55">
-        <v>0.06481372504603103</v>
+        <v>-0.06664598172942331</v>
       </c>
       <c r="D55">
-        <v>-0.0270251052093058</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.03578479737213765</v>
+      </c>
+      <c r="E55">
+        <v>0.0459408735189125</v>
+      </c>
+      <c r="F55">
+        <v>0.06935995782431459</v>
+      </c>
+      <c r="G55">
+        <v>-0.03473195065043595</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1520223270512609</v>
+        <v>0.1448572743541514</v>
       </c>
       <c r="C56">
-        <v>0.09006227294890705</v>
+        <v>-0.09968286782349976</v>
       </c>
       <c r="D56">
-        <v>-0.02443583764373121</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.03737272914126138</v>
+      </c>
+      <c r="E56">
+        <v>0.05134232515863585</v>
+      </c>
+      <c r="F56">
+        <v>0.06070751811313436</v>
+      </c>
+      <c r="G56">
+        <v>-0.0418443839284434</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.003910442568305201</v>
+        <v>0.001505484997132614</v>
       </c>
       <c r="C57">
-        <v>0.007684334191388181</v>
+        <v>-0.003623061177757197</v>
       </c>
       <c r="D57">
-        <v>0.03245116405327495</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.02661958064755238</v>
+      </c>
+      <c r="E57">
+        <v>0.005956386904727775</v>
+      </c>
+      <c r="F57">
+        <v>0.01018093786668454</v>
+      </c>
+      <c r="G57">
+        <v>0.003597364226338657</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.06527340439077856</v>
+        <v>0.03700698009829986</v>
       </c>
       <c r="C58">
-        <v>0.08104235281408757</v>
+        <v>-0.04026563604325199</v>
       </c>
       <c r="D58">
-        <v>0.9722759492416002</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.6793596652641687</v>
+      </c>
+      <c r="E58">
+        <v>0.6243091375762346</v>
+      </c>
+      <c r="F58">
+        <v>-0.3153388108737236</v>
+      </c>
+      <c r="G58">
+        <v>-0.02495323658207702</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1439808097872741</v>
+        <v>0.1488780100493203</v>
       </c>
       <c r="C59">
-        <v>-0.2200397512554231</v>
+        <v>0.2031948063353244</v>
       </c>
       <c r="D59">
-        <v>0.01304983917041225</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.02148719829732739</v>
+      </c>
+      <c r="E59">
+        <v>0.01505460531138391</v>
+      </c>
+      <c r="F59">
+        <v>0.03732956265073528</v>
+      </c>
+      <c r="G59">
+        <v>0.02277626710307748</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.3113874330651129</v>
+        <v>0.2832430230007971</v>
       </c>
       <c r="C60">
-        <v>0.08848807977405763</v>
+        <v>-0.09411420318586598</v>
       </c>
       <c r="D60">
-        <v>-0.008153901016894097</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.1459127203636477</v>
+      </c>
+      <c r="E60">
+        <v>-0.2935754846130461</v>
+      </c>
+      <c r="F60">
+        <v>-0.1487788031034784</v>
+      </c>
+      <c r="G60">
+        <v>-0.06570032289146538</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.03626121600618499</v>
+        <v>0.04141331518449381</v>
       </c>
       <c r="C61">
-        <v>0.06208769458995292</v>
+        <v>-0.06168542249266858</v>
       </c>
       <c r="D61">
-        <v>0.002286469694529638</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.03836532798839595</v>
+      </c>
+      <c r="E61">
+        <v>-0.00380043548858567</v>
+      </c>
+      <c r="F61">
+        <v>0.08636108985044134</v>
+      </c>
+      <c r="G61">
+        <v>-0.000977581558626466</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.01711218805832191</v>
+        <v>0.01748144173726494</v>
       </c>
       <c r="C63">
-        <v>0.02768294839558375</v>
+        <v>-0.02845289517005288</v>
       </c>
       <c r="D63">
-        <v>-0.01754223112025795</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.01410786217754368</v>
+      </c>
+      <c r="E63">
+        <v>0.01427126635733762</v>
+      </c>
+      <c r="F63">
+        <v>0.09081388129849129</v>
+      </c>
+      <c r="G63">
+        <v>-0.01981696978698046</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.04833547763219419</v>
+        <v>0.05417004048651083</v>
       </c>
       <c r="C64">
-        <v>0.02885421664955586</v>
+        <v>-0.04983243786992628</v>
       </c>
       <c r="D64">
-        <v>-0.01500611840562554</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.008522630613943635</v>
+      </c>
+      <c r="E64">
+        <v>-0.001667663532475883</v>
+      </c>
+      <c r="F64">
+        <v>0.09302766949653689</v>
+      </c>
+      <c r="G64">
+        <v>0.01367053295533335</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.08629652606765272</v>
+        <v>0.06837467153922723</v>
       </c>
       <c r="C65">
-        <v>0.0626227959415953</v>
+        <v>-0.04287344852132514</v>
       </c>
       <c r="D65">
-        <v>0.006574288191247042</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.07478094544874847</v>
+      </c>
+      <c r="E65">
+        <v>-0.01006828548567026</v>
+      </c>
+      <c r="F65">
+        <v>0.03723185154306995</v>
+      </c>
+      <c r="G65">
+        <v>0.006152822334073675</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.06114834440811962</v>
+        <v>0.05198866208968439</v>
       </c>
       <c r="C66">
-        <v>0.1198004502439285</v>
+        <v>-0.0970259929377702</v>
       </c>
       <c r="D66">
-        <v>0.00862302621867775</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.07080577254459654</v>
+      </c>
+      <c r="E66">
+        <v>-0.01643228218368775</v>
+      </c>
+      <c r="F66">
+        <v>0.09038795969731896</v>
+      </c>
+      <c r="G66">
+        <v>0.01481826236736326</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.06306054039189729</v>
+        <v>0.05187301040768916</v>
       </c>
       <c r="C67">
-        <v>0.02598823159338398</v>
+        <v>-0.02619298511143132</v>
       </c>
       <c r="D67">
-        <v>-0.01677684032923422</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.007748850298866521</v>
+      </c>
+      <c r="E67">
+        <v>0.007341637348205815</v>
+      </c>
+      <c r="F67">
+        <v>0.07012770558115768</v>
+      </c>
+      <c r="G67">
+        <v>-0.009504235452619456</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1221850824024191</v>
+        <v>0.1502564323663346</v>
       </c>
       <c r="C68">
-        <v>-0.2878995911209267</v>
+        <v>0.2640969892486675</v>
       </c>
       <c r="D68">
-        <v>0.02788125704888231</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.009276046027082579</v>
+      </c>
+      <c r="E68">
+        <v>0.04252024184385452</v>
+      </c>
+      <c r="F68">
+        <v>0.02031174131550173</v>
+      </c>
+      <c r="G68">
+        <v>0.0003755361004394024</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.0854466541093114</v>
+        <v>0.0870328595008185</v>
       </c>
       <c r="C69">
-        <v>0.06638763286442631</v>
+        <v>-0.08211697818798205</v>
       </c>
       <c r="D69">
-        <v>-0.03389294353067467</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01220297737110335</v>
+      </c>
+      <c r="E69">
+        <v>0.01401364783578518</v>
+      </c>
+      <c r="F69">
+        <v>0.09805857687030679</v>
+      </c>
+      <c r="G69">
+        <v>-0.008204445125872336</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1243055065756181</v>
+        <v>0.1393570602440034</v>
       </c>
       <c r="C71">
-        <v>-0.2399524015592088</v>
+        <v>0.2373490566273914</v>
       </c>
       <c r="D71">
-        <v>0.0283951752322563</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.02134281290673318</v>
+      </c>
+      <c r="E71">
+        <v>0.04272029717252283</v>
+      </c>
+      <c r="F71">
+        <v>0.06587292386731741</v>
+      </c>
+      <c r="G71">
+        <v>-0.0159569923652976</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.07794735422496794</v>
+        <v>0.08892728340000394</v>
       </c>
       <c r="C72">
-        <v>0.05814621656535106</v>
+        <v>-0.05756192745830269</v>
       </c>
       <c r="D72">
-        <v>-0.04615640343003075</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.004938810954989069</v>
+      </c>
+      <c r="E72">
+        <v>-0.02214838953545987</v>
+      </c>
+      <c r="F72">
+        <v>0.07896496550102315</v>
+      </c>
+      <c r="G72">
+        <v>-0.010667934730064</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.4392503062151837</v>
+        <v>0.3558518595386727</v>
       </c>
       <c r="C73">
-        <v>0.08739125499992305</v>
+        <v>-0.07364206618931424</v>
       </c>
       <c r="D73">
-        <v>0.01013190965604345</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.3274501180138851</v>
+      </c>
+      <c r="E73">
+        <v>-0.5307375037689689</v>
+      </c>
+      <c r="F73">
+        <v>-0.3147099290968802</v>
+      </c>
+      <c r="G73">
+        <v>-0.1547067980659654</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.1154410270789084</v>
+        <v>0.1113638580626091</v>
       </c>
       <c r="C74">
-        <v>0.116017485561262</v>
+        <v>-0.1011635779630169</v>
       </c>
       <c r="D74">
-        <v>-0.02426374975806325</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01551821950184392</v>
+      </c>
+      <c r="E74">
+        <v>0.06292525431919427</v>
+      </c>
+      <c r="F74">
+        <v>0.07875290512575715</v>
+      </c>
+      <c r="G74">
+        <v>-0.05507331914007609</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.2613146521874751</v>
+        <v>0.2576364683203627</v>
       </c>
       <c r="C75">
-        <v>0.120041453784552</v>
+        <v>-0.1347744044620603</v>
       </c>
       <c r="D75">
-        <v>-0.03815470119444981</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1017304022142245</v>
+      </c>
+      <c r="E75">
+        <v>0.120068281409844</v>
+      </c>
+      <c r="F75">
+        <v>0.02854919392466229</v>
+      </c>
+      <c r="G75">
+        <v>-0.05846926050479533</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.116787224215912</v>
+        <v>0.1293079666286298</v>
       </c>
       <c r="C76">
-        <v>0.1010963297738232</v>
+        <v>-0.1018551459104604</v>
       </c>
       <c r="D76">
-        <v>-0.03109852547291179</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.04506440500692676</v>
+      </c>
+      <c r="E76">
+        <v>0.08143668441296149</v>
+      </c>
+      <c r="F76">
+        <v>0.08110193879705853</v>
+      </c>
+      <c r="G76">
+        <v>-0.04335856345353292</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.07122560691344387</v>
+        <v>0.06817679052082182</v>
       </c>
       <c r="C77">
-        <v>0.05880591085935206</v>
+        <v>-0.06383626893247719</v>
       </c>
       <c r="D77">
-        <v>0.02754101248673787</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.05804176821736172</v>
+      </c>
+      <c r="E77">
+        <v>0.0380000235102204</v>
+      </c>
+      <c r="F77">
+        <v>0.1018030903972261</v>
+      </c>
+      <c r="G77">
+        <v>0.1429531405384488</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.04378649091531896</v>
+        <v>0.04270695462616265</v>
       </c>
       <c r="C78">
-        <v>0.04867858650431288</v>
+        <v>-0.05559564783928463</v>
       </c>
       <c r="D78">
-        <v>0.004407152222744522</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.0587863438604469</v>
+      </c>
+      <c r="E78">
+        <v>-0.02000538141810729</v>
+      </c>
+      <c r="F78">
+        <v>0.09630945801268029</v>
+      </c>
+      <c r="G78">
+        <v>0.009127860489114303</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.005663536486612755</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-0.03067037002566692</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.02021328017990881</v>
+      </c>
+      <c r="E79">
+        <v>0.03252532881788352</v>
+      </c>
+      <c r="F79">
+        <v>0.03776517635377065</v>
+      </c>
+      <c r="G79">
+        <v>-0.02997895182488255</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.0478853108675847</v>
+        <v>0.03945639351301122</v>
       </c>
       <c r="C80">
-        <v>0.05772791682696517</v>
+        <v>-0.04611016062918247</v>
       </c>
       <c r="D80">
-        <v>0.01747105538117733</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.04443397654770252</v>
+      </c>
+      <c r="E80">
+        <v>0.001393824408481998</v>
+      </c>
+      <c r="F80">
+        <v>0.0351604393065627</v>
+      </c>
+      <c r="G80">
+        <v>0.04744628159479812</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1379535839643967</v>
+        <v>0.142329060099728</v>
       </c>
       <c r="C81">
-        <v>0.07974869282764437</v>
+        <v>-0.09262742107397512</v>
       </c>
       <c r="D81">
-        <v>-0.03002285936561368</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.07504329391193004</v>
+      </c>
+      <c r="E81">
+        <v>0.09921158795161018</v>
+      </c>
+      <c r="F81">
+        <v>0.03993854542826201</v>
+      </c>
+      <c r="G81">
+        <v>-0.04858933909564201</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.06835118157198228</v>
+        <v>0.1880533092570492</v>
       </c>
       <c r="C82">
-        <v>0.0405469677752939</v>
+        <v>-0.1348272403284334</v>
       </c>
       <c r="D82">
-        <v>-0.01875899648205821</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2126198254001379</v>
+      </c>
+      <c r="E82">
+        <v>0.05755123499901851</v>
+      </c>
+      <c r="F82">
+        <v>0.04145877102260376</v>
+      </c>
+      <c r="G82">
+        <v>-0.002546584188396409</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.02788060027714366</v>
+        <v>0.02779779386949981</v>
       </c>
       <c r="C83">
-        <v>0.02018979397761165</v>
+        <v>-0.03600554989154995</v>
       </c>
       <c r="D83">
-        <v>0.01475269764791407</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03254439738197669</v>
+      </c>
+      <c r="E83">
+        <v>-0.007599238857468076</v>
+      </c>
+      <c r="F83">
+        <v>0.05147353412485528</v>
+      </c>
+      <c r="G83">
+        <v>0.02942587030932204</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.2418445347848932</v>
+        <v>0.2106552418405145</v>
       </c>
       <c r="C85">
-        <v>0.1193259752501319</v>
+        <v>-0.1199834706934512</v>
       </c>
       <c r="D85">
-        <v>-0.107993511814473</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1025482838348998</v>
+      </c>
+      <c r="E85">
+        <v>0.04094149783856911</v>
+      </c>
+      <c r="F85">
+        <v>-0.01044487157514853</v>
+      </c>
+      <c r="G85">
+        <v>-0.1081937356162282</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.01307333791921654</v>
+        <v>0.01488589045217928</v>
       </c>
       <c r="C86">
-        <v>0.02680103870984716</v>
+        <v>-0.0306433744276071</v>
       </c>
       <c r="D86">
-        <v>0.007737932998061995</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.07321302785845224</v>
+      </c>
+      <c r="E86">
+        <v>-0.0006391675013052507</v>
+      </c>
+      <c r="F86">
+        <v>0.1597611080440529</v>
+      </c>
+      <c r="G86">
+        <v>0.02917655254328065</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.01413347294326032</v>
+        <v>0.0217502849055791</v>
       </c>
       <c r="C87">
-        <v>0.02511727038139576</v>
+        <v>-0.01851578673413334</v>
       </c>
       <c r="D87">
-        <v>0.07311618768837991</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09640811597046638</v>
+      </c>
+      <c r="E87">
+        <v>0.04496532141771044</v>
+      </c>
+      <c r="F87">
+        <v>0.1108006808423141</v>
+      </c>
+      <c r="G87">
+        <v>0.04721700523322492</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.1044558349966074</v>
+        <v>0.09048259267213879</v>
       </c>
       <c r="C88">
-        <v>0.06627873184124246</v>
+        <v>-0.06056243711049065</v>
       </c>
       <c r="D88">
-        <v>-0.01514608526756841</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.009665869931359041</v>
+      </c>
+      <c r="E88">
+        <v>0.01134432717250796</v>
+      </c>
+      <c r="F88">
+        <v>0.08056741190284258</v>
+      </c>
+      <c r="G88">
+        <v>0.03417772021764166</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1958013089499351</v>
+        <v>0.2118386697925272</v>
       </c>
       <c r="C89">
-        <v>-0.3707552118237481</v>
+        <v>0.3769328618887449</v>
       </c>
       <c r="D89">
-        <v>-0.0180753594569479</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.01593335740966103</v>
+      </c>
+      <c r="E89">
+        <v>0.01049342947053702</v>
+      </c>
+      <c r="F89">
+        <v>0.07865007277399819</v>
+      </c>
+      <c r="G89">
+        <v>0.0927551684224537</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1805431917232978</v>
+        <v>0.197904990902052</v>
       </c>
       <c r="C90">
-        <v>-0.3458756599034454</v>
+        <v>0.3206231239225651</v>
       </c>
       <c r="D90">
-        <v>0.02260396532229389</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.01254495335386053</v>
+      </c>
+      <c r="E90">
+        <v>0.05319436101170855</v>
+      </c>
+      <c r="F90">
+        <v>0.05119095831897404</v>
+      </c>
+      <c r="G90">
+        <v>0.02383783158804405</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.2004493761340385</v>
+        <v>0.19284715052065</v>
       </c>
       <c r="C91">
-        <v>0.1080541785066755</v>
+        <v>-0.1319760118575892</v>
       </c>
       <c r="D91">
-        <v>-0.0405691033515982</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.08684714545124689</v>
+      </c>
+      <c r="E91">
+        <v>0.0990790904350724</v>
+      </c>
+      <c r="F91">
+        <v>0.05578287439884377</v>
+      </c>
+      <c r="G91">
+        <v>-0.0449861930831526</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1761308933491497</v>
+        <v>0.1804923871780071</v>
       </c>
       <c r="C92">
-        <v>-0.2766433120216011</v>
+        <v>0.2785326640472553</v>
       </c>
       <c r="D92">
-        <v>0.0155156270279461</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.00624417773489463</v>
+      </c>
+      <c r="E92">
+        <v>0.07594964308619816</v>
+      </c>
+      <c r="F92">
+        <v>0.07301559229082835</v>
+      </c>
+      <c r="G92">
+        <v>0.02829250155985093</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1935727617581488</v>
+        <v>0.2191673136955197</v>
       </c>
       <c r="C93">
-        <v>-0.3295338352815102</v>
+        <v>0.3223863123282045</v>
       </c>
       <c r="D93">
-        <v>0.0220070988822978</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.00549908486528429</v>
+      </c>
+      <c r="E93">
+        <v>0.03745965952633031</v>
+      </c>
+      <c r="F93">
+        <v>0.05835337375948662</v>
+      </c>
+      <c r="G93">
+        <v>-0.01382590487006953</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.2759309994000594</v>
+        <v>0.3415883300236606</v>
       </c>
       <c r="C94">
-        <v>0.1405447468605579</v>
+        <v>-0.1856312452861394</v>
       </c>
       <c r="D94">
-        <v>-0.0716455540421029</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4137346096221549</v>
+      </c>
+      <c r="E94">
+        <v>0.3045940099051358</v>
+      </c>
+      <c r="F94">
+        <v>-0.4466414292147182</v>
+      </c>
+      <c r="G94">
+        <v>0.2009745652284773</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.08645567655575856</v>
+        <v>0.08212595841438275</v>
       </c>
       <c r="C95">
-        <v>0.09065291018696685</v>
+        <v>-0.08529513972766917</v>
       </c>
       <c r="D95">
-        <v>0.05682306245693814</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1374938644375878</v>
+      </c>
+      <c r="E95">
+        <v>-0.1482710983842257</v>
+      </c>
+      <c r="F95">
+        <v>0.01344681669126392</v>
+      </c>
+      <c r="G95">
+        <v>0.909451007357996</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.2100610934099039</v>
+        <v>0.1928029902434686</v>
       </c>
       <c r="C98">
-        <v>0.03596419675558661</v>
+        <v>-0.04071079987049217</v>
       </c>
       <c r="D98">
-        <v>0.02754421913303623</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.142094022977081</v>
+      </c>
+      <c r="E98">
+        <v>-0.1800400578389172</v>
+      </c>
+      <c r="F98">
+        <v>-0.0441263547107985</v>
+      </c>
+      <c r="G98">
+        <v>-0.1061399494784864</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.01131930349646904</v>
+        <v>0.008993218906144034</v>
       </c>
       <c r="C101">
-        <v>0.02194008399045679</v>
+        <v>-0.0217110768563856</v>
       </c>
       <c r="D101">
-        <v>-0.01146016136304829</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01287582900060761</v>
+      </c>
+      <c r="E101">
+        <v>0.01198062547103441</v>
+      </c>
+      <c r="F101">
+        <v>0.09858326025620752</v>
+      </c>
+      <c r="G101">
+        <v>0.003896024088559707</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.1226467026361457</v>
+        <v>0.1246535712846941</v>
       </c>
       <c r="C102">
-        <v>0.07384530551576161</v>
+        <v>-0.09570434177056554</v>
       </c>
       <c r="D102">
-        <v>-0.03137928829414974</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.04604112518472044</v>
+      </c>
+      <c r="E102">
+        <v>0.01238577419725635</v>
+      </c>
+      <c r="F102">
+        <v>0.02932128463789916</v>
+      </c>
+      <c r="G102">
+        <v>-0.01162099595609708</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
